--- a/vars(noted).xlsx
+++ b/vars(noted).xlsx
@@ -1614,8 +1614,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="A15:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
